--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Spn.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam1-Spn.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H2">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I2">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J2">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>3.962310666666667</v>
+        <v>3.260090333333334</v>
       </c>
       <c r="N2">
-        <v>11.886932</v>
+        <v>9.780271000000001</v>
       </c>
       <c r="O2">
-        <v>0.3675710495835373</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="P2">
-        <v>0.3675710495835373</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="Q2">
-        <v>69.90461027094001</v>
+        <v>59.66394555227224</v>
       </c>
       <c r="R2">
-        <v>629.1414924384601</v>
+        <v>536.97550997045</v>
       </c>
       <c r="S2">
-        <v>0.0161743865057884</v>
+        <v>0.02067624614700942</v>
       </c>
       <c r="T2">
-        <v>0.0161743865057884</v>
+        <v>0.02067624614700942</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H3">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I3">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J3">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.04101733333333333</v>
+        <v>1.435229</v>
       </c>
       <c r="N3">
-        <v>0.123052</v>
+        <v>4.305687</v>
       </c>
       <c r="O3">
-        <v>0.00380504850144288</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="P3">
-        <v>0.00380504850144288</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="Q3">
-        <v>0.7236435863399999</v>
+        <v>26.26658041818333</v>
       </c>
       <c r="R3">
-        <v>6.51279227706</v>
+        <v>236.39922376365</v>
       </c>
       <c r="S3">
-        <v>0.0001674351807775357</v>
+        <v>0.009102553931683339</v>
       </c>
       <c r="T3">
-        <v>0.0001674351807775357</v>
+        <v>0.009102553931683337</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.642385</v>
+        <v>18.30131666666667</v>
       </c>
       <c r="H4">
-        <v>52.927155</v>
+        <v>54.90395</v>
       </c>
       <c r="I4">
-        <v>0.04400342879047246</v>
+        <v>0.03754501421639525</v>
       </c>
       <c r="J4">
-        <v>0.04400342879047245</v>
+        <v>0.03754501421639524</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,33 +685,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.590421666666666</v>
+        <v>1.224524</v>
       </c>
       <c r="N4">
-        <v>7.771265</v>
+        <v>3.673572</v>
       </c>
       <c r="O4">
-        <v>0.240305238781698</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="P4">
-        <v>0.240305238781698</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="Q4">
-        <v>45.701216355675</v>
+        <v>22.41040148993334</v>
       </c>
       <c r="R4">
-        <v>411.310947201075</v>
+        <v>201.6936134094</v>
       </c>
       <c r="S4">
-        <v>0.01057425446270793</v>
+        <v>0.007766214137702491</v>
       </c>
       <c r="T4">
-        <v>0.01057425446270793</v>
+        <v>0.00776621413770249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.642385</v>
+        <v>18.78801466666667</v>
       </c>
       <c r="H5">
-        <v>52.927155</v>
+        <v>56.364044</v>
       </c>
       <c r="I5">
-        <v>0.04400342879047246</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J5">
-        <v>0.04400342879047245</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.185963999999999</v>
+        <v>3.260090333333334</v>
       </c>
       <c r="N5">
-        <v>12.557892</v>
+        <v>9.780271000000001</v>
       </c>
       <c r="O5">
-        <v>0.3883186631333219</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="P5">
-        <v>0.3883186631333219</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="Q5">
-        <v>73.85038848414</v>
+        <v>61.25062499732489</v>
       </c>
       <c r="R5">
-        <v>664.6534963572599</v>
+        <v>551.2556249759241</v>
       </c>
       <c r="S5">
-        <v>0.01708735264119859</v>
+        <v>0.02122610208527563</v>
       </c>
       <c r="T5">
-        <v>0.01708735264119859</v>
+        <v>0.02122610208527563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>56.364044</v>
       </c>
       <c r="I6">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J6">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.962310666666667</v>
+        <v>1.435229</v>
       </c>
       <c r="N6">
-        <v>11.886932</v>
+        <v>4.305687</v>
       </c>
       <c r="O6">
-        <v>0.3675710495835373</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="P6">
-        <v>0.3675710495835373</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="Q6">
-        <v>74.44395091922311</v>
+        <v>26.96510350202533</v>
       </c>
       <c r="R6">
-        <v>669.9955582730081</v>
+        <v>242.685931518228</v>
       </c>
       <c r="S6">
-        <v>0.01722468990984427</v>
+        <v>0.009344623662191383</v>
       </c>
       <c r="T6">
-        <v>0.01722468990984427</v>
+        <v>0.009344623662191383</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>56.364044</v>
       </c>
       <c r="I7">
-        <v>0.04686084480635803</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="J7">
-        <v>0.04686084480635802</v>
+        <v>0.03854347152205856</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.04101733333333333</v>
+        <v>1.224524</v>
       </c>
       <c r="N7">
-        <v>0.123052</v>
+        <v>3.673572</v>
       </c>
       <c r="O7">
-        <v>0.00380504850144288</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="P7">
-        <v>0.00380504850144288</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="Q7">
-        <v>0.7706342602542221</v>
+        <v>23.00637487168533</v>
       </c>
       <c r="R7">
-        <v>6.935708342288</v>
+        <v>207.057373845168</v>
       </c>
       <c r="S7">
-        <v>0.00017830778730678</v>
+        <v>0.00797274577459154</v>
       </c>
       <c r="T7">
-        <v>0.00017830778730678</v>
+        <v>0.00797274577459154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.78801466666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H8">
-        <v>56.364044</v>
+        <v>121.778737</v>
       </c>
       <c r="I8">
-        <v>0.04686084480635803</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J8">
-        <v>0.04686084480635802</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.590421666666666</v>
+        <v>3.260090333333334</v>
       </c>
       <c r="N8">
-        <v>7.771265</v>
+        <v>9.780271000000001</v>
       </c>
       <c r="O8">
-        <v>0.240305238781698</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="P8">
-        <v>0.240305238781698</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="Q8">
-        <v>48.66888026618444</v>
+        <v>132.3365610997475</v>
       </c>
       <c r="R8">
-        <v>438.01992239566</v>
+        <v>1191.029049897727</v>
       </c>
       <c r="S8">
-        <v>0.01126090650070396</v>
+        <v>0.04586058273920042</v>
       </c>
       <c r="T8">
-        <v>0.01126090650070396</v>
+        <v>0.04586058273920042</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.78801466666667</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H9">
-        <v>56.364044</v>
+        <v>121.778737</v>
       </c>
       <c r="I9">
-        <v>0.04686084480635803</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J9">
-        <v>0.04686084480635802</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.185963999999999</v>
+        <v>1.435229</v>
       </c>
       <c r="N9">
-        <v>12.557892</v>
+        <v>4.305687</v>
       </c>
       <c r="O9">
-        <v>0.3883186631333219</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="P9">
-        <v>0.3883186631333219</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="Q9">
-        <v>78.64595302613866</v>
+        <v>58.26012497525766</v>
       </c>
       <c r="R9">
-        <v>707.813577235248</v>
+        <v>524.3411247773189</v>
       </c>
       <c r="S9">
-        <v>0.01819694060850302</v>
+        <v>0.02018975904784229</v>
       </c>
       <c r="T9">
-        <v>0.01819694060850302</v>
+        <v>0.02018975904784229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.82177033333333</v>
+        <v>40.59291233333333</v>
       </c>
       <c r="H10">
-        <v>134.465311</v>
+        <v>121.778737</v>
       </c>
       <c r="I10">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="J10">
-        <v>0.1117939314398673</v>
+        <v>0.08327605594715239</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,43 +1057,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.962310666666667</v>
+        <v>1.224524</v>
       </c>
       <c r="N10">
-        <v>11.886932</v>
+        <v>3.673572</v>
       </c>
       <c r="O10">
-        <v>0.3675710495835373</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="P10">
-        <v>0.3675710495835373</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="Q10">
-        <v>177.5977786906502</v>
+        <v>49.70699538206266</v>
       </c>
       <c r="R10">
-        <v>1598.380008215852</v>
+        <v>447.362958438564</v>
       </c>
       <c r="S10">
-        <v>0.04109221271642204</v>
+        <v>0.01722571416010967</v>
       </c>
       <c r="T10">
-        <v>0.04109221271642204</v>
+        <v>0.01722571416010967</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.82177033333333</v>
+        <v>0.642691</v>
       </c>
       <c r="H11">
-        <v>134.465311</v>
+        <v>1.928073</v>
       </c>
       <c r="I11">
-        <v>0.1117939314398673</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J11">
-        <v>0.1117939314398673</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.04101733333333333</v>
+        <v>3.260090333333334</v>
       </c>
       <c r="N11">
-        <v>0.123052</v>
+        <v>9.780271000000001</v>
       </c>
       <c r="O11">
-        <v>0.00380504850144288</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="P11">
-        <v>0.00380504850144288</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="Q11">
-        <v>1.838469494352444</v>
+        <v>2.095230716420334</v>
       </c>
       <c r="R11">
-        <v>16.546225449172</v>
+        <v>18.857076447783</v>
       </c>
       <c r="S11">
-        <v>0.0004253813312956753</v>
+        <v>0.0007260918738524803</v>
       </c>
       <c r="T11">
-        <v>0.0004253813312956753</v>
+        <v>0.0007260918738524803</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.82177033333333</v>
+        <v>0.642691</v>
       </c>
       <c r="H12">
-        <v>134.465311</v>
+        <v>1.928073</v>
       </c>
       <c r="I12">
-        <v>0.1117939314398673</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J12">
-        <v>0.1117939314398673</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.590421666666666</v>
+        <v>1.435229</v>
       </c>
       <c r="N12">
-        <v>7.771265</v>
+        <v>4.305687</v>
       </c>
       <c r="O12">
-        <v>0.240305238781698</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="P12">
-        <v>0.240305238781698</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="Q12">
-        <v>116.1072850098239</v>
+        <v>0.922408761239</v>
       </c>
       <c r="R12">
-        <v>1044.965565088415</v>
+        <v>8.301678851150999</v>
       </c>
       <c r="S12">
-        <v>0.02686466738900209</v>
+        <v>0.0003196562081001911</v>
       </c>
       <c r="T12">
-        <v>0.0268646673890021</v>
+        <v>0.0003196562081001911</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.82177033333333</v>
+        <v>0.642691</v>
       </c>
       <c r="H13">
-        <v>134.465311</v>
+        <v>1.928073</v>
       </c>
       <c r="I13">
-        <v>0.1117939314398673</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="J13">
-        <v>0.1117939314398673</v>
+        <v>0.001318475778067841</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,33 +1243,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.185963999999999</v>
+        <v>1.224524</v>
       </c>
       <c r="N13">
-        <v>12.557892</v>
+        <v>3.673572</v>
       </c>
       <c r="O13">
-        <v>0.3883186631333219</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="P13">
-        <v>0.3883186631333219</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="Q13">
-        <v>187.6223170316013</v>
+        <v>0.786990554084</v>
       </c>
       <c r="R13">
-        <v>1688.600853284412</v>
+        <v>7.082914986756</v>
       </c>
       <c r="S13">
-        <v>0.04341167000314753</v>
+        <v>0.0002727276961151694</v>
       </c>
       <c r="T13">
-        <v>0.04341167000314753</v>
+        <v>0.0002727276961151694</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.760055666666667</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H14">
-        <v>5.280167</v>
+        <v>1172.513336</v>
       </c>
       <c r="I14">
-        <v>0.004389910105432695</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J14">
-        <v>0.004389910105432695</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.962310666666667</v>
+        <v>3.260090333333334</v>
       </c>
       <c r="N14">
-        <v>11.886932</v>
+        <v>9.780271000000001</v>
       </c>
       <c r="O14">
-        <v>0.3675710495835373</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="P14">
-        <v>0.3675710495835373</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="Q14">
-        <v>6.973887341960446</v>
+        <v>1274.166464132673</v>
       </c>
       <c r="R14">
-        <v>62.76498607764402</v>
+        <v>11467.49817719406</v>
       </c>
       <c r="S14">
-        <v>0.001613603865031272</v>
+        <v>0.4415561056315103</v>
       </c>
       <c r="T14">
-        <v>0.001613603865031272</v>
+        <v>0.4415561056315103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,51 +1349,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.760055666666667</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H15">
-        <v>5.280167</v>
+        <v>1172.513336</v>
       </c>
       <c r="I15">
-        <v>0.004389910105432695</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J15">
-        <v>0.004389910105432695</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.04101733333333333</v>
+        <v>1.435229</v>
       </c>
       <c r="N15">
-        <v>0.123052</v>
+        <v>4.305687</v>
       </c>
       <c r="O15">
-        <v>0.00380504850144288</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="P15">
-        <v>0.00380504850144288</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="Q15">
-        <v>0.0721927899648889</v>
+        <v>560.9417142379813</v>
       </c>
       <c r="R15">
-        <v>0.6497351096840001</v>
+        <v>5048.475428141832</v>
       </c>
       <c r="S15">
-        <v>1.670382086814563E-05</v>
+        <v>0.1943915852421902</v>
       </c>
       <c r="T15">
-        <v>1.670382086814563E-05</v>
+        <v>0.1943915852421902</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.760055666666667</v>
+        <v>390.8377786666667</v>
       </c>
       <c r="H16">
-        <v>5.280167</v>
+        <v>1172.513336</v>
       </c>
       <c r="I16">
-        <v>0.004389910105432695</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="J16">
-        <v>0.004389910105432695</v>
+        <v>0.8018007787970267</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,33 +1429,33 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.590421666666666</v>
+        <v>1.224524</v>
       </c>
       <c r="N16">
-        <v>7.771265</v>
+        <v>3.673572</v>
       </c>
       <c r="O16">
-        <v>0.240305238781698</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="P16">
-        <v>0.240305238781698</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="Q16">
-        <v>4.559286333472778</v>
+        <v>478.5902400840213</v>
       </c>
       <c r="R16">
-        <v>41.033577001255</v>
+        <v>4307.312160756192</v>
       </c>
       <c r="S16">
-        <v>0.001054918396116193</v>
+        <v>0.1658530879233263</v>
       </c>
       <c r="T16">
-        <v>0.001054918396116193</v>
+        <v>0.1658530879233263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,61 +1473,61 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.760055666666667</v>
+        <v>18.287273</v>
       </c>
       <c r="H17">
-        <v>5.280167</v>
+        <v>54.861819</v>
       </c>
       <c r="I17">
-        <v>0.004389910105432695</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J17">
-        <v>0.004389910105432695</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>4.185963999999999</v>
+        <v>3.260090333333334</v>
       </c>
       <c r="N17">
-        <v>12.557892</v>
+        <v>9.780271000000001</v>
       </c>
       <c r="O17">
-        <v>0.3883186631333219</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="P17">
-        <v>0.3883186631333219</v>
+        <v>0.5507055085354173</v>
       </c>
       <c r="Q17">
-        <v>7.367529658662667</v>
+        <v>59.61816193032767</v>
       </c>
       <c r="R17">
-        <v>66.307766927964</v>
+        <v>536.563457372949</v>
       </c>
       <c r="S17">
-        <v>0.001704684023417084</v>
+        <v>0.02066038005856916</v>
       </c>
       <c r="T17">
-        <v>0.001704684023417084</v>
+        <v>0.02066038005856916</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>266.7063343333334</v>
+        <v>18.287273</v>
       </c>
       <c r="H18">
-        <v>800.119003</v>
+        <v>54.861819</v>
       </c>
       <c r="I18">
-        <v>0.6652157965493199</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J18">
-        <v>0.6652157965493198</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>3.962310666666667</v>
+        <v>1.435229</v>
       </c>
       <c r="N18">
-        <v>11.886932</v>
+        <v>4.305687</v>
       </c>
       <c r="O18">
-        <v>0.3675710495835373</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="P18">
-        <v>0.3675710495835373</v>
+        <v>0.2424437471036677</v>
       </c>
       <c r="Q18">
-        <v>1056.773353396533</v>
+        <v>26.246424540517</v>
       </c>
       <c r="R18">
-        <v>9510.960180568798</v>
+        <v>236.217820864653</v>
       </c>
       <c r="S18">
-        <v>0.2445140685371823</v>
+        <v>0.009095569011660356</v>
       </c>
       <c r="T18">
-        <v>0.2445140685371823</v>
+        <v>0.009095569011660356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,418 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>266.7063343333334</v>
+        <v>18.287273</v>
       </c>
       <c r="H19">
-        <v>800.119003</v>
+        <v>54.861819</v>
       </c>
       <c r="I19">
-        <v>0.6652157965493199</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="J19">
-        <v>0.6652157965493198</v>
+        <v>0.03751620373929931</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04101733333333333</v>
+        <v>1.224524</v>
       </c>
       <c r="N19">
-        <v>0.123052</v>
+        <v>3.673572</v>
       </c>
       <c r="O19">
-        <v>0.00380504850144288</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="P19">
-        <v>0.00380504850144288</v>
+        <v>0.2068507443609149</v>
       </c>
       <c r="Q19">
-        <v>10.93958261746178</v>
+        <v>22.393204683052</v>
       </c>
       <c r="R19">
-        <v>98.456243557156</v>
+        <v>201.538842147468</v>
       </c>
       <c r="S19">
-        <v>0.002531178369796121</v>
+        <v>0.007760254669069803</v>
       </c>
       <c r="T19">
-        <v>0.002531178369796121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>266.7063343333334</v>
-      </c>
-      <c r="H20">
-        <v>800.119003</v>
-      </c>
-      <c r="I20">
-        <v>0.6652157965493199</v>
-      </c>
-      <c r="J20">
-        <v>0.6652157965493198</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>2.590421666666666</v>
-      </c>
-      <c r="N20">
-        <v>7.771265</v>
-      </c>
-      <c r="O20">
-        <v>0.240305238781698</v>
-      </c>
-      <c r="P20">
-        <v>0.240305238781698</v>
-      </c>
-      <c r="Q20">
-        <v>690.8818670943106</v>
-      </c>
-      <c r="R20">
-        <v>6217.936803848795</v>
-      </c>
-      <c r="S20">
-        <v>0.1598548408311418</v>
-      </c>
-      <c r="T20">
-        <v>0.1598548408311418</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>266.7063343333334</v>
-      </c>
-      <c r="H21">
-        <v>800.119003</v>
-      </c>
-      <c r="I21">
-        <v>0.6652157965493199</v>
-      </c>
-      <c r="J21">
-        <v>0.6652157965493198</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.185963999999999</v>
-      </c>
-      <c r="N21">
-        <v>12.557892</v>
-      </c>
-      <c r="O21">
-        <v>0.3883186631333219</v>
-      </c>
-      <c r="P21">
-        <v>0.3883186631333219</v>
-      </c>
-      <c r="Q21">
-        <v>1116.423114091297</v>
-      </c>
-      <c r="R21">
-        <v>10047.80802682168</v>
-      </c>
-      <c r="S21">
-        <v>0.2583157088111998</v>
-      </c>
-      <c r="T21">
-        <v>0.2583157088111998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>51.213492</v>
-      </c>
-      <c r="H22">
-        <v>153.640476</v>
-      </c>
-      <c r="I22">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="J22">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.962310666666667</v>
-      </c>
-      <c r="N22">
-        <v>11.886932</v>
-      </c>
-      <c r="O22">
-        <v>0.3675710495835373</v>
-      </c>
-      <c r="P22">
-        <v>0.3675710495835373</v>
-      </c>
-      <c r="Q22">
-        <v>202.923765628848</v>
-      </c>
-      <c r="R22">
-        <v>1826.313890659632</v>
-      </c>
-      <c r="S22">
-        <v>0.04695208804926898</v>
-      </c>
-      <c r="T22">
-        <v>0.04695208804926898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>51.213492</v>
-      </c>
-      <c r="H23">
-        <v>153.640476</v>
-      </c>
-      <c r="I23">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="J23">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.04101733333333333</v>
-      </c>
-      <c r="N23">
-        <v>0.123052</v>
-      </c>
-      <c r="O23">
-        <v>0.00380504850144288</v>
-      </c>
-      <c r="P23">
-        <v>0.00380504850144288</v>
-      </c>
-      <c r="Q23">
-        <v>2.100640872528</v>
-      </c>
-      <c r="R23">
-        <v>18.905767852752</v>
-      </c>
-      <c r="S23">
-        <v>0.000486042011398622</v>
-      </c>
-      <c r="T23">
-        <v>0.000486042011398622</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>51.213492</v>
-      </c>
-      <c r="H24">
-        <v>153.640476</v>
-      </c>
-      <c r="I24">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="J24">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>2.590421666666666</v>
-      </c>
-      <c r="N24">
-        <v>7.771265</v>
-      </c>
-      <c r="O24">
-        <v>0.240305238781698</v>
-      </c>
-      <c r="P24">
-        <v>0.240305238781698</v>
-      </c>
-      <c r="Q24">
-        <v>132.66453930246</v>
-      </c>
-      <c r="R24">
-        <v>1193.98085372214</v>
-      </c>
-      <c r="S24">
-        <v>0.03069565120202607</v>
-      </c>
-      <c r="T24">
-        <v>0.03069565120202608</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>51.213492</v>
-      </c>
-      <c r="H25">
-        <v>153.640476</v>
-      </c>
-      <c r="I25">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="J25">
-        <v>0.1277360883085496</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.185963999999999</v>
-      </c>
-      <c r="N25">
-        <v>12.557892</v>
-      </c>
-      <c r="O25">
-        <v>0.3883186631333219</v>
-      </c>
-      <c r="P25">
-        <v>0.3883186631333219</v>
-      </c>
-      <c r="Q25">
-        <v>214.377833826288</v>
-      </c>
-      <c r="R25">
-        <v>1929.400504436592</v>
-      </c>
-      <c r="S25">
-        <v>0.04960230704585594</v>
-      </c>
-      <c r="T25">
-        <v>0.04960230704585594</v>
+        <v>0.007760254669069803</v>
       </c>
     </row>
   </sheetData>
